--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1398718.934988789</v>
+        <v>1469908.110280979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.204079718</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6123070.474852569</v>
+        <v>6590900.411793563</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.3742563943501</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>381.103442987337</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -817,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>27.18442331492784</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -868,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717037</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,10 +898,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>66.12232352323805</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -911,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.3084622450227</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.9735834668218</v>
+        <v>2.008513159454715</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1138,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>175.0569624638798</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>44.69616728427791</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>90.30617524481291</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048105</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>218.8051831917191</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,10 +1615,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>175.0349193669786</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>218.3925617125876</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>27.07950026194637</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>153.2006427344288</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208695</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790287</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>73.7153530015306</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>13.01313443288555</v>
+        <v>39.57637241135595</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>130.676793166034</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>129.7139627068451</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>186.7520388614</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>351.3081994509253</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>19.66484339936997</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>225.4012917247097</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4189,16 +4191,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.3318638183778</v>
+        <v>1331.865744460759</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2297950422051</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>508.3604142570537</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6260734557529</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4361,19 +4363,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.569699866108</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>1559.714245277141</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X2" t="n">
-        <v>1140.571781856452</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y2" t="n">
-        <v>732.2856581561051</v>
+        <v>1758.165314945667</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>987.356679073157</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
         <v>959.897665623735</v>
@@ -4483,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2489.401636434796</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2210.968635687901</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1924.013127558332</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1651.986723144624</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.594968478036</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y4" t="n">
-        <v>1179.175297792144</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.95961582883</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C5" t="n">
-        <v>1637.857547052657</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4598,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1713.566561313561</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.464501933276</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1694.218782273333</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4720,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.45937714051</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4802,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4841,13 +4843,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>740.3049442308645</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308645</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308645</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1401.144998772643</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F10" t="n">
-        <v>233.2795245870976</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4972,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1552.591825232938</v>
+        <v>2104.363000055489</v>
       </c>
       <c r="C11" t="n">
-        <v>1114.449352416361</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>678.5395675908057</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>457.5242310335137</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397633</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231029</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189624</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999556</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316573</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250399</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.319982838882</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X11" t="n">
-        <v>2387.177519418192</v>
+        <v>2938.948694240743</v>
       </c>
       <c r="Y11" t="n">
-        <v>1978.891395717846</v>
+        <v>2530.662570540397</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576149</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591376</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098748</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497163104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1331.993278048506</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>893.8508052319293</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>457.9410204063738</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>457.9410204063738</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>457.9410204063738</v>
+        <v>495.5847200684497</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>254.9523156162895</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1089.302607574467</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397633</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231029</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189624</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>2585.72143565445</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>2585.72143565445</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>2166.57897223376</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1758.292848533414</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.80629903465757</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>418.3646240008699</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>406.7483977834476</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>1060.279116188732</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>887.7174046719571</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>721.8394118734798</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>552.081408124217</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>375.3743540859732</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>209.7830791118009</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T16" t="n">
-        <v>2358.796516883403</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2358.796516883403</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.841008753834</v>
+        <v>1996.935564673907</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.814604340125</v>
+        <v>1724.909160260199</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673538</v>
+        <v>1479.517405593611</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>1252.097734907719</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497401</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367832</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954123</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3484.30924180069</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>3311.747530283914</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>3145.869537485437</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>2976.111533736174</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>2799.404479697931</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>4707.921198415434</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>4420.965690285864</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>4148.939285872156</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>3903.547531205568</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>3676.127860519677</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,64 +5977,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6074,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>945.7774352703902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>945.7774352703902</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,7 +6788,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1017.756527079655</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C34" t="n">
-        <v>845.1948155628801</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D34" t="n">
-        <v>679.3168227644028</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E34" t="n">
-        <v>509.55881901514</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.575145798642</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3205.876241053795</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3033.31452953702</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>2867.436536738543</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>2697.67853298928</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2520.971478951036</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3397.694859772782</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873769</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740236</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C40" t="n">
-        <v>970.9960463903949</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D40" t="n">
-        <v>805.1180535919176</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>398.8763199993409</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>233.2850450251686</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232938</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.449352416361</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>678.5395675908057</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>244.7648227491009</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K41" t="n">
-        <v>722.6273955810118</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.191591333635</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2111.755787086258</v>
+        <v>2992.672448660723</v>
       </c>
       <c r="N41" t="n">
-        <v>2806.319982838882</v>
+        <v>2992.672448660723</v>
       </c>
       <c r="O41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231029</v>
       </c>
       <c r="P41" t="n">
-        <v>2806.319982838882</v>
+        <v>3972.852115231029</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189624</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999556</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316573</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316573</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838882</v>
+        <v>3720.708107727606</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418192</v>
+        <v>3301.565644306917</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717846</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="L42" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.801965382963</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>626.035472885021</v>
       </c>
       <c r="O42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1135.184560268659</v>
+        <v>781.8461154418374</v>
       </c>
       <c r="C43" t="n">
-        <v>962.6228487518839</v>
+        <v>609.2844039250623</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>499.0392768920475</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>499.0392768920475</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2071.841008753834</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846716</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.003178987646</v>
+        <v>973.6647341608245</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1880.7616291466</v>
+        <v>2104.363000055489</v>
       </c>
       <c r="C44" t="n">
-        <v>1442.619156330024</v>
+        <v>1666.220527238912</v>
       </c>
       <c r="D44" t="n">
-        <v>1006.709371504468</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>572.9346266627631</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>572.9346266627631</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484973</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171361</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224173</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="K44" t="n">
-        <v>870.6928053750404</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="L44" t="n">
-        <v>870.6928053750404</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="M44" t="n">
-        <v>1565.257001127664</v>
+        <v>1038.63159039088</v>
       </c>
       <c r="N44" t="n">
-        <v>2259.821196880287</v>
+        <v>2164.362573827327</v>
       </c>
       <c r="O44" t="n">
-        <v>2259.821196880287</v>
+        <v>3144.542240397633</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231029</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189624</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.50496594268</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126517</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999556</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4125.563562316573</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.7616291466</v>
+        <v>3762.946612250399</v>
       </c>
       <c r="W44" t="n">
-        <v>1880.7616291466</v>
+        <v>3358.091157661433</v>
       </c>
       <c r="X44" t="n">
-        <v>1880.7616291466</v>
+        <v>2938.948694240743</v>
       </c>
       <c r="Y44" t="n">
-        <v>1880.7616291466</v>
+        <v>2530.662570540397</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538037</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885361</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.108239054679</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.31812082264</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225021</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2246.247373141401</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927012</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1219.056488827412</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761388</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>624.2965329288038</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923595</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949894473</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>312.1854988754994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163981</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>559.8357612908221</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>624.2965329288038</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>537.6417914809773</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>954.4055465374003</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>411.8858435779298</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>210.6318142015687</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>42.83163548871318</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>140.5982188529241</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>90.22000922290047</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473388</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.2200092229</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.146865729424633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>161.9268490649758</v>
+        <v>135.3636110865054</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>37.38363054573614</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.8367164334843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>52.89506301241784</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>55.07653710780788</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>411.8858435779299</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>171.982561338259</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384116.6870247812</v>
+        <v>544230.9919986889</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384116.6870247811</v>
+        <v>544230.9919986889</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580345.6432799164</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799161</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384116.6870247812</v>
+        <v>544230.991998689</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384116.6870247811</v>
+        <v>544230.9919986889</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>388706.8069205462</v>
+      </c>
+      <c r="C2" t="n">
+        <v>388706.8069205461</v>
+      </c>
+      <c r="D2" t="n">
         <v>388706.806920546</v>
       </c>
-      <c r="C2" t="n">
-        <v>388706.8069205462</v>
-      </c>
-      <c r="D2" t="n">
-        <v>388706.8069205461</v>
-      </c>
       <c r="E2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26352,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.816466698</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.88892013468</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,7 +26444,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.88892013468</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.88892013468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232874</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48589.16346416103</v>
+        <v>-48589.16346416087</v>
       </c>
       <c r="C6" t="n">
-        <v>175110.535119884</v>
+        <v>175110.5351198839</v>
       </c>
       <c r="D6" t="n">
-        <v>175110.5351198839</v>
+        <v>175110.5351198838</v>
       </c>
       <c r="E6" t="n">
-        <v>172772.4802630874</v>
+        <v>97706.89849248691</v>
       </c>
       <c r="F6" t="n">
-        <v>182943.4768635436</v>
+        <v>248372.6520642347</v>
       </c>
       <c r="G6" t="n">
-        <v>105071.0810177659</v>
+        <v>234040.7487912672</v>
       </c>
       <c r="H6" t="n">
         <v>263130.5579638752</v>
       </c>
       <c r="I6" t="n">
-        <v>263130.5579638751</v>
+        <v>263130.5579638752</v>
       </c>
       <c r="J6" t="n">
-        <v>88479.20924616908</v>
+        <v>88479.20924616896</v>
       </c>
       <c r="K6" t="n">
         <v>263130.5579638751</v>
@@ -26552,16 +26554,16 @@
         <v>263130.5579638751</v>
       </c>
       <c r="M6" t="n">
-        <v>254641.4762605343</v>
+        <v>137379.4696281846</v>
       </c>
       <c r="N6" t="n">
         <v>263130.5579638751</v>
       </c>
       <c r="O6" t="n">
-        <v>182943.4768635436</v>
+        <v>248372.6520642347</v>
       </c>
       <c r="P6" t="n">
-        <v>182943.4768635436</v>
+        <v>248372.6520642346</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.12624148567</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990751</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990751</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.6623183857087</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>52.65760510107395</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27433,13 +27435,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6516710866795</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>216.236228642401</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>367.6387245651729</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>69.49843779805434</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.171890512211</v>
+        <v>223.1369608195781</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>256.4937245134201</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>370.2548715022045</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>73.6291869796177</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.6338082530489</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>809.0782778761388</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>624.2965329288038</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923595</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949894473</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>312.1854988754994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>459.5978749662599</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>673.2333292163981</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>559.8357612908221</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>624.2965329288038</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>537.6417914809773</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>954.4055465374003</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1469908.110280979</v>
+        <v>1469302.022652083</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079718</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>381.103442987337</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>332.0886777282575</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>53.06991172717037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>49.17722654850316</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>66.12232352323805</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>32.773896913958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361696</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.008513159454715</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>165.4825827656711</v>
       </c>
       <c r="D8" t="n">
-        <v>175.0569624638798</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>3.139541480022511</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,13 +1372,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>21.87520451048105</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>274.1812334715131</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>130.9830890894412</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>175.0349193669786</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>27.07950026194637</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>16.92574903169017</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208695</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790287</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2259,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>67.84972440587271</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>20.73696989209195</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>108.0570408708227</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>155.4289015982187</v>
       </c>
     </row>
     <row r="32">
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>39.57637241135595</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>15.57230972412408</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>129.7139627068451</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>380.7571198061734</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>351.3081994509253</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>109.1426757626846</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>19.66484339936997</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742578</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>134.9254647561326</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.865744460759</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C2" t="n">
-        <v>946.912771746277</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901678</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2585.593902066702</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>2166.451438646013</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>1758.165314945667</v>
+        <v>888.780546856193</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.897665623735</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
         <v>959.897665623735</v>
@@ -4485,22 +4485,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.527709695201</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1379.135955028614</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1151.716284342722</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1819.558022317326</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.767796536277</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>2636.14082950513</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>2621.038770124845</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.81718876183</v>
+        <v>2212.752646424498</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056491</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>305.9860876711973</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870971</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885332</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>56.57247054885332</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>56.57247054885332</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4974,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055489</v>
+        <v>2363.585302738474</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1925.442829921898</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1489.533045096342</v>
       </c>
       <c r="E11" t="n">
         <v>1212.582304216026</v>
@@ -5032,61 +5032,61 @@
         <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484973</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171361</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827327</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827327</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827327</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397633</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231029</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189624</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126517</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999556</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316573</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250399</v>
+        <v>4022.168914933384</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661433</v>
+        <v>3617.313460344418</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240743</v>
+        <v>3198.170996923729</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540397</v>
+        <v>2789.884873223382</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455235</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.2661363957848</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790097</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805324</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312697</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885361</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
         <v>1332.801988003553</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2363.585302738474</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>1925.442829921898</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1489.533045096342</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>1055.758300254637</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684497</v>
+        <v>627.8908706638449</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171361</v>
+        <v>226.4930392871088</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171361</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>254.9523156162895</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1089.302607574467</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827327</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827327</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827327</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397633</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231029</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189624</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.50496594268</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4511.702017087146</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.479714404163</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.86276433799</v>
+        <v>4022.168914933384</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.007309749023</v>
+        <v>3617.313460344418</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>3198.170996923729</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2789.884873223382</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.80629903465757</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>418.3646240008699</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1060.279116188732</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>887.7174046719571</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>721.8394118734798</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>552.081408124217</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>375.3743540859732</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>209.7830791118009</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
         <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
         <v>1332.801988003553</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225021</v>
+        <v>2693.332993028027</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2447.453546606482</v>
       </c>
       <c r="U16" t="n">
-        <v>2283.891072803477</v>
+        <v>2169.020545859587</v>
       </c>
       <c r="V16" t="n">
-        <v>1996.935564673907</v>
+        <v>1882.065037730018</v>
       </c>
       <c r="W16" t="n">
-        <v>1724.909160260199</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X16" t="n">
-        <v>1479.517405593611</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y16" t="n">
-        <v>1252.097734907719</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5515,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1632.322702740237</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497401</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367832</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954123</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.557290287536</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5752,16 +5752,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5977,64 +5977,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.023562068816</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321675</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532226</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968673</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>2676.260711694652</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>2636.284577945808</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2703.190844391635</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2543.949475689632</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2298.070029268087</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2019.637028521192</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1732.681520391623</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>911.2193705853248</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>745.3413777868475</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>575.5833740375847</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>398.8763199993409</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>233.2850450251686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1748.411126173566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484973</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171361</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
         <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2992.672448660723</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2992.672448660723</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231029</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231029</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189624</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126517</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999556</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316573</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>4125.563562316573</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>3720.708107727606</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>3301.565644306917</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885361</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885361</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>626.035472885021</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418374</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250623</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>499.0392768920475</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>499.0392768920475</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>322.3322228538037</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538037</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
         <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
         <v>1332.801988003553</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225021</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927012</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846716</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.6647341608245</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055489</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238912</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484973</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171361</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885361</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885361</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>93.77009931885361</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.63159039088</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827327</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397633</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231029</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189624</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.50496594268</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126517</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999556</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316573</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250399</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661433</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240743</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540397</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
         <v>1099.098144071247</v>
@@ -7797,22 +7797,22 @@
         <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538037</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
         <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885361</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>455.108239054679</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>873.31812082264</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
         <v>1332.801988003553</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225021</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2169.020545859587</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927012</v>
+        <v>1882.065037730018</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X46" t="n">
-        <v>1446.476159513304</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y46" t="n">
-        <v>1219.056488827412</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761388</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>685.6170387597641</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11068,22 +11068,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908221</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>537.6417914809773</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374003</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>411.8858435779298</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>155.2557639217746</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>155.2557639217747</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.83163548871318</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>140.7232059832931</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473388</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>248.5691704774794</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>55.87832135360793</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>135.3636110865054</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.631333357557754</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.789189859684171</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>42.83163548871096</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>52.89506301241784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.07653710780788</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>411.8858435779299</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>42.83163548871096</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>140.7232059832932</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544230.9919986889</v>
+        <v>544230.9919986891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544230.9919986889</v>
+        <v>544230.9919986891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>580345.6432799164</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>580345.6432799161</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580345.6432799163</v>
+        <v>580345.6432799164</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580345.6432799161</v>
+        <v>580345.6432799163</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544230.9919986889</v>
+        <v>544230.991998689</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
         <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666981</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="G2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="H2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="I2" t="n">
+        <v>381971.7484995803</v>
+      </c>
+      <c r="J2" t="n">
+        <v>381971.7484995803</v>
+      </c>
+      <c r="K2" t="n">
         <v>381971.7484995805</v>
       </c>
-      <c r="H2" t="n">
-        <v>381971.7484995805</v>
-      </c>
-      <c r="I2" t="n">
-        <v>381971.7484995805</v>
-      </c>
-      <c r="J2" t="n">
-        <v>381971.7484995804</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>381971.7484995803</v>
-      </c>
-      <c r="L2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26352,10 +26352,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
+        <v>358201.8164666983</v>
+      </c>
+      <c r="P2" t="n">
         <v>358201.8164666981</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358201.816466698</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260801</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>38563.88892013468</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="G4" t="n">
         <v>41122.95192991272</v>
@@ -26453,13 +26453,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>38563.88892013468</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="P4" t="n">
-        <v>38563.88892013468</v>
+        <v>38563.88892013469</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232874</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48589.16346416087</v>
+        <v>-48589.16346416091</v>
       </c>
       <c r="C6" t="n">
+        <v>175110.5351198838</v>
+      </c>
+      <c r="D6" t="n">
         <v>175110.5351198839</v>
       </c>
-      <c r="D6" t="n">
-        <v>175110.5351198838</v>
-      </c>
       <c r="E6" t="n">
-        <v>97706.89849248691</v>
+        <v>97601.70887023211</v>
       </c>
       <c r="F6" t="n">
-        <v>248372.6520642347</v>
+        <v>248267.4624419801</v>
       </c>
       <c r="G6" t="n">
-        <v>234040.7487912672</v>
+        <v>234017.5244518846</v>
       </c>
       <c r="H6" t="n">
-        <v>263130.5579638752</v>
+        <v>263107.3336244925</v>
       </c>
       <c r="I6" t="n">
-        <v>263130.5579638752</v>
+        <v>263107.3336244924</v>
       </c>
       <c r="J6" t="n">
-        <v>88479.20924616896</v>
+        <v>88455.98490678633</v>
       </c>
       <c r="K6" t="n">
-        <v>263130.5579638751</v>
+        <v>263107.3336244926</v>
       </c>
       <c r="L6" t="n">
-        <v>263130.5579638751</v>
+        <v>263107.3336244924</v>
       </c>
       <c r="M6" t="n">
-        <v>137379.4696281846</v>
+        <v>137356.2452888018</v>
       </c>
       <c r="N6" t="n">
-        <v>263130.5579638751</v>
+        <v>263107.3336244925</v>
       </c>
       <c r="O6" t="n">
-        <v>248372.6520642347</v>
+        <v>248267.4624419802</v>
       </c>
       <c r="P6" t="n">
-        <v>248372.6520642346</v>
+        <v>248267.46244198</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990751</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990751</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>52.65760510107395</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.1145847350856</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>216.236228642401</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>175.9682474305296</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>367.6387245651729</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>223.8561827421953</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27791,7 +27791,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>63.43016517136634</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="D8" t="n">
-        <v>256.4937245134201</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>84.6338082530489</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>566.3319231075541</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35339,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761388</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>162.8103194923595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>685.6170387597641</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949894473</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463134</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465014</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>606.9002735643694</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37782,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>559.8357612908221</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>537.6417914809773</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>954.4055465374003</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
